--- a/DM/seed/DDL_GAP.xlsx
+++ b/DM/seed/DDL_GAP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2770693B-12E0-46D0-8021-E97D41DF11F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E48F29-8DF9-49DE-8A7F-A37E86379954}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>table_name</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>PROD</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SP_NAME</t>
   </si>
 </sst>
 </file>
@@ -74,39 +80,15 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,50 +111,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -457,50 +410,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="12" width="8.7265625" style="5"/>
-    <col min="13" max="17" width="8.7265625" style="7"/>
-    <col min="18" max="22" width="8.7265625" style="9"/>
+    <col min="3" max="22" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -524,49 +476,49 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -583,12 +535,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5618A8-1380-4604-8F14-5500910BCB66}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DM/seed/DDL_GAP.xlsx
+++ b/DM/seed/DDL_GAP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E48F29-8DF9-49DE-8A7F-A37E86379954}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187D750-C38A-4A6E-B725-CEF9EF9E6004}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDL" sheetId="1" r:id="rId1"/>
     <sheet name="VIEW" sheetId="2" r:id="rId2"/>
+    <sheet name="INDEX" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>table_name</t>
   </si>
@@ -60,6 +61,12 @@
   </si>
   <si>
     <t>SP_NAME</t>
+  </si>
+  <si>
+    <t>INDEX_NAME</t>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
   </si>
 </sst>
 </file>
@@ -537,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5618A8-1380-4604-8F14-5500910BCB66}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,4 +573,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC8084E-160B-41B3-9E6E-AF35D5108714}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>